--- a/data/outputs/management/37.xlsx
+++ b/data/outputs/management/37.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ76"/>
+  <dimension ref="A1:BR76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -905,6 +910,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>4620936</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1102,6 +1112,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1299,6 +1310,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1496,6 +1508,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1709,6 +1722,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>10470102</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1922,6 +1940,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2123,6 +2142,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2328,6 +2348,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>9982874</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2533,6 +2558,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2738,6 +2764,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>7528259</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2947,6 +2978,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3156,6 +3188,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3377,6 +3410,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3578,6 +3612,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3783,6 +3818,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4000,6 +4036,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4201,6 +4238,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4410,6 +4448,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4611,6 +4650,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4816,6 +4856,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5021,6 +5062,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>4559818</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5222,6 +5268,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5427,6 +5474,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5628,6 +5676,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5829,6 +5878,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6030,6 +6080,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6231,6 +6282,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6436,6 +6488,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6637,6 +6690,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6846,6 +6900,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6932,7 +6987,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Wernsing, Tara/0000-0003-3204-4983; de Luque, Mary Sully/0000-0001-7402-744X; </t>
+          <t>Wernsing, Tara/0000-0003-3204-4983; de Luque, Mary Sully/0000-0001-7402-744X;</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr"/>
@@ -7055,6 +7110,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7260,6 +7316,11 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>3730833</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7473,6 +7534,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7686,6 +7748,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>2669702</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7891,6 +7958,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8100,6 +8168,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8301,6 +8370,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8502,6 +8572,11 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>47880669</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8723,6 +8798,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8928,6 +9004,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>4496607</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9125,6 +9206,11 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>3768461</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9322,6 +9408,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9519,6 +9606,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9728,6 +9816,11 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr">
+        <is>
+          <t>50095291</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9933,6 +10026,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10138,6 +10232,11 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>22235396</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10339,6 +10438,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10540,6 +10640,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10741,6 +10842,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10950,6 +11052,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11151,6 +11254,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11360,6 +11464,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11561,6 +11666,11 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr">
+        <is>
+          <t>2455306</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11746,6 +11856,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11947,6 +12058,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12160,6 +12272,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12361,6 +12474,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12562,6 +12676,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12771,6 +12886,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12972,6 +13088,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13181,6 +13298,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13386,6 +13504,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13587,6 +13706,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13796,6 +13916,11 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr">
+        <is>
+          <t>2431580</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13997,6 +14122,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14198,6 +14324,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14407,6 +14534,11 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr">
+        <is>
+          <t>2150196</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14612,6 +14744,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14813,6 +14946,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15022,6 +15156,11 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr">
+        <is>
+          <t>4512765</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15227,6 +15366,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15432,6 +15572,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15633,6 +15774,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15834,6 +15976,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16039,6 +16182,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
